--- a/BackTest/2020-01-26 BackTest EOS.xlsx
+++ b/BackTest/2020-01-26 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>40863.98453954</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>42169.16153954</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>41819.90113954</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>44554.87933954</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>44584.87933954</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>44612.87933954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>44586.28783954</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>45509.16183954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>45500.05463954</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>45522.58173954</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>45403.22093954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>32324.44136474</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>32626.66006474</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>29709.67476474</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>29759.54496474</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>29713.29836474</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>29713.29836474</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>26349.46806474</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>23584.54366474</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>23584.54366474</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>7924.100964740002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>7382.736664740002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>7382.736664740002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1402.765035259998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>21745.59376474</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>23966.96106474</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>19577.81091687</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>27012.749169</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>27012.749169</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>26936.146369</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>26867.651269</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>28587.582369</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>27587.582369</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>26939.624269</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>26939.624269</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>26276.144769</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>23208.1025962</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>24197.7882962</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>24126.4150962</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>24189.7293962</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>22019.2164962</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>22018.2164962</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>22018.2164962</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>22012.7257962</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>22011.7257962</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>22666.8681962</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>24760.5355962</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>24669.4430962</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>24740.6983962</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>24087.5353962</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>24087.5353962</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>24040.7934962</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>24480.4630962</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>24374.8503962</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>24373.8503962</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>24373.8503962</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>24373.8503962</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>24441.45039619999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>24441.45039619999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>24440.45039619999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>25364.04219619999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>25367.39279619999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>25440.01459619999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25453.07324199999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>25852.60309619999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>26227.27609619999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>29421.27589619999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>32481.49889619999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>33652.25322210999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>34568.22452210999</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>34568.22452210999</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>38341.99602210998</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>37864.06392210998</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>38916.73882210998</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>38693.52542210998</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>38081.98892210998</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>35503.37352210998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>38774.59292210998</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>38900.49962210999</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>52091.42799619999</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>51273.59469619999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>53330.02729619999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>53006.42569619999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>52564.12569619998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>51748.70409619998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>54522.75209619998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>57122.82889619999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>57322.47329619998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>57479.22029619999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>54479.09309619998</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>52757.04199619998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>52845.02689619998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>52845.02689619998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>54893.31809619998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>54902.86049619998</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>53620.13539619998</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>51105.37549619998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>50894.87549619998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>50384.62419619998</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>50138.16279619998</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>50210.95679619998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>50208.48999619998</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>43993.76909619998</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>43994.94319619997</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>44028.42079619997</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>44142.18539619997</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>44142.18539619997</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>44143.18539619997</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>42532.62859619997</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>44732.89119619998</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>44788.37749619998</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>44788.37749619998</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>45046.30569619998</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>44803.39119619998</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>44847.74239619998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>46044.02829619998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>46044.02829619998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>44544.02829619998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>44544.02829619998</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>44836.52829619998</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>43836.52829619998</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>44246.02829619998</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>44196.95629619998</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>43675.57809619998</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>43569.86379619998</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>43617.17109619999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>43617.17109619999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>44682.62539619998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>44927.45079619998</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>44821.44709619998</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>44615.54959619998</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>44100.96679619999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>41308.40169619999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>41308.40169619999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>42911.34529619999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>42910.43529619998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>42910.43529619998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>41829.48299619999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>40536.14409619998</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>37911.38859619998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>38049.48669619999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>37919.43289619999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>38024.38429619998</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>37851.48679619998</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>37092.54239619998</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>35579.36139619999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>35579.36139619999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>35579.36139619999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>35579.36139619999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>37062.73729619999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>36720.74569619999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>36720.74569619999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>36720.74569619999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>36689.98769619998</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>34148.72829619998</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>34149.55029619998</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>32110.74519619998</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>32974.15999619998</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>32968.49719619998</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>32968.49719619998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>33113.55279619998</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>31120.26199619998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>31127.52689619998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>31127.52689619998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>31745.14319619998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>30345.50319619998</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>30268.87349619998</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>30268.87349619998</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>29935.90459619998</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>29935.90459619998</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>29935.90459619998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>29705.46739619998</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -16060,11 +16060,17 @@
         <v>-27656.18508128001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>4095</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,7 +16099,7 @@
         <v>-26640.07848128002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>4100</v>
@@ -16101,7 +16107,7 @@
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L476" t="n">
@@ -16132,9 +16138,11 @@
         <v>-29066.88808128002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>4108</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16169,7 +16177,7 @@
         <v>-27841.92758128002</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>4101</v>
@@ -16208,7 +16216,7 @@
         <v>-27797.35438128002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>4102</v>
@@ -16247,7 +16255,7 @@
         <v>-28401.95218128002</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>4104</v>
@@ -16286,7 +16294,7 @@
         <v>-25591.92688128001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>4095</v>
@@ -16325,7 +16333,7 @@
         <v>-24986.65498128001</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>4103</v>
@@ -16364,7 +16372,7 @@
         <v>-24669.58458128001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>4112</v>
@@ -16403,7 +16411,7 @@
         <v>-24668.63764743002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>4118</v>
@@ -16442,7 +16450,7 @@
         <v>-24668.63764743002</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>4124</v>
@@ -16481,9 +16489,11 @@
         <v>-24668.63764743002</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>4124</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16518,9 +16528,11 @@
         <v>-26833.69684743002</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>4124</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16555,9 +16567,11 @@
         <v>-25978.51824743002</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>4120</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16666,11 +16680,9 @@
         <v>-25251.44404743002</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>4134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -19480,9 +19492,11 @@
         <v>-37753.25613409003</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>4148</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19554,9 +19568,11 @@
         <v>-38064.55583409003</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>4145</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19591,9 +19607,11 @@
         <v>-40786.57683409003</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>4145</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19628,9 +19646,11 @@
         <v>-41977.04863409003</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>4141</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19665,9 +19685,11 @@
         <v>-33124.39933409003</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>4139</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -30728,9 +30750,11 @@
         <v>-80744.00024707006</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>4144</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -30765,9 +30789,11 @@
         <v>-81601.97984707006</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4149</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -30802,9 +30828,11 @@
         <v>-81601.97984707006</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>4147</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -30839,9 +30867,11 @@
         <v>-81282.77364707006</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4147</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -30876,9 +30906,11 @@
         <v>-83079.42254707006</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>4148</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -30950,9 +30982,11 @@
         <v>-83887.48434707006</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>4145</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -31024,9 +31058,11 @@
         <v>-83887.48434707006</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>4143</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -31098,9 +31134,11 @@
         <v>-79798.40474707006</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>4143</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -31283,9 +31321,11 @@
         <v>-83417.16184707005</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>4139</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31320,9 +31360,11 @@
         <v>-83148.69224707005</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>4139</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -31357,9 +31399,11 @@
         <v>-83868.69224707005</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>4142</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31727,9 +31771,11 @@
         <v>-85811.75764707006</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>4129</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -31764,9 +31810,11 @@
         <v>-85724.86524707006</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>4123</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -31801,9 +31849,11 @@
         <v>-86459.11824707006</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>4126</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31875,9 +31925,11 @@
         <v>-90348.67424707006</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>4123</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31949,9 +32001,11 @@
         <v>-87656.09265483005</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>4112</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -32097,9 +32151,11 @@
         <v>-85930.43835483004</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>4127</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -32171,9 +32227,11 @@
         <v>-116480.50165483</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>4135</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -32467,9 +32525,11 @@
         <v>-113075.45937314</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4156</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -32504,7 +32564,7 @@
         <v>-113743.99797314</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>4160</v>
@@ -32543,7 +32603,7 @@
         <v>-113669.62967314</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>4150</v>
@@ -32582,7 +32642,7 @@
         <v>-113942.12587314</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>4159</v>
@@ -32621,9 +32681,11 @@
         <v>-113977.87767314</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>4147</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -32658,9 +32720,11 @@
         <v>-113999.53267314</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>4146</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -32695,9 +32759,11 @@
         <v>-113999.53267314</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>4139</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -32732,9 +32798,11 @@
         <v>-113205.18317314</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>4139</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -32769,9 +32837,11 @@
         <v>-110055.59887314</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4149</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -32806,9 +32876,11 @@
         <v>-106638.66417314</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>4156</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -33472,9 +33544,11 @@
         <v>-113001.33127314</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4156</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -33509,9 +33583,11 @@
         <v>-114044.04497314</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>4153</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -33546,9 +33622,11 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>4152</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -33583,9 +33661,11 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>4146</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -33620,9 +33700,11 @@
         <v>-112694.41667314</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>4146</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -33635,6 +33717,6 @@
       <c r="M949" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest EOS.xlsx
+++ b/BackTest/2020-01-26 BackTest EOS.xlsx
@@ -946,7 +946,7 @@
         <v>41819.90113954</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>44554.87933954</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>44584.87933954</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>44612.87933954</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>44586.28783954</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>22018.2164962</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>32481.49889619999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>34568.22452210999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>34568.22452210999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>38341.99602210998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>37864.06392210998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>38916.73882210998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>38693.52542210998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>38081.98892210998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>35503.37352210998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>38774.59292210998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>38900.49962210999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>52091.42799619999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>56426.37069619999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>51374.59469619999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>51273.59469619999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>53330.02729619999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>53006.42569619999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>52564.12569619998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>51748.70409619998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>54522.75209619998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>57122.82889619999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>57322.47329619998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>57479.22029619999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>58036.53049619999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>58512.75519619999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>58493.21829619999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>60145.21829619999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>56808.70429619998</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>57362.61809619999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>57278.33389619998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>57967.81379619998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>57967.81379619998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>59784.31379619998</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>55746.80209619998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>56328.48109619998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>56278.48109619998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>58358.48109619998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>58347.01879619998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>58798.96079619998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>58797.96079619998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>55796.72859619998</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>55796.72859619998</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-6897.930539180043</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-6797.930539180043</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-6797.930539180043</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-8511.399939180043</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-8152.459439180043</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-8495.587539180044</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-3790.835039180044</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>1572.074760819956</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-423.2348391800438</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-116.2128391800438</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-1334.257639180044</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-677.4138391800437</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-1081.186639180044</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-1085.819539180044</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-5332.502139180044</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-10615.14813918004</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-8343.905139180044</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-8843.905139180044</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-10145.41483918004</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -30085,1186 +30085,1064 @@
         <v>-86459.11824707006</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>4126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>4123</v>
+      </c>
+      <c r="C901" t="n">
+        <v>4123</v>
+      </c>
+      <c r="D901" t="n">
+        <v>4123</v>
+      </c>
+      <c r="E901" t="n">
+        <v>4123</v>
+      </c>
+      <c r="F901" t="n">
+        <v>400</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-86459.11824707006</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>4123</v>
+      </c>
+      <c r="C902" t="n">
+        <v>4121</v>
+      </c>
+      <c r="D902" t="n">
+        <v>4123</v>
+      </c>
+      <c r="E902" t="n">
+        <v>4116</v>
+      </c>
+      <c r="F902" t="n">
+        <v>3889.556</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-90348.67424707006</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>4120</v>
+      </c>
+      <c r="C903" t="n">
+        <v>4112</v>
+      </c>
+      <c r="D903" t="n">
+        <v>4120</v>
+      </c>
+      <c r="E903" t="n">
+        <v>4112</v>
+      </c>
+      <c r="F903" t="n">
+        <v>473.89320388</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-90822.56745095005</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>4117</v>
+      </c>
+      <c r="C904" t="n">
+        <v>4125</v>
+      </c>
+      <c r="D904" t="n">
+        <v>4125</v>
+      </c>
+      <c r="E904" t="n">
+        <v>4116</v>
+      </c>
+      <c r="F904" t="n">
+        <v>3166.47479612</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-87656.09265483005</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>4125</v>
+      </c>
+      <c r="C905" t="n">
+        <v>4125</v>
+      </c>
+      <c r="D905" t="n">
+        <v>4125</v>
+      </c>
+      <c r="E905" t="n">
+        <v>4125</v>
+      </c>
+      <c r="F905" t="n">
+        <v>247</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-87656.09265483005</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="n">
+        <v>1</v>
+      </c>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>4120</v>
+      </c>
+      <c r="C906" t="n">
+        <v>4125</v>
+      </c>
+      <c r="D906" t="n">
+        <v>4125</v>
+      </c>
+      <c r="E906" t="n">
+        <v>4120</v>
+      </c>
+      <c r="F906" t="n">
+        <v>2005.4624</v>
+      </c>
+      <c r="G906" t="n">
+        <v>-87656.09265483005</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="n">
+        <v>1</v>
+      </c>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>4128</v>
+      </c>
+      <c r="C907" t="n">
+        <v>4127</v>
+      </c>
+      <c r="D907" t="n">
+        <v>4128</v>
+      </c>
+      <c r="E907" t="n">
+        <v>4127</v>
+      </c>
+      <c r="F907" t="n">
+        <v>1228.0338</v>
+      </c>
+      <c r="G907" t="n">
+        <v>-86428.05885483004</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="n">
+        <v>1</v>
+      </c>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>4131</v>
+      </c>
+      <c r="C908" t="n">
+        <v>4134</v>
+      </c>
+      <c r="D908" t="n">
+        <v>4134</v>
+      </c>
+      <c r="E908" t="n">
+        <v>4131</v>
+      </c>
+      <c r="F908" t="n">
+        <v>497.6205</v>
+      </c>
+      <c r="G908" t="n">
+        <v>-85930.43835483004</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="n">
+        <v>1</v>
+      </c>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>4134</v>
+      </c>
+      <c r="C909" t="n">
+        <v>4135</v>
+      </c>
+      <c r="D909" t="n">
+        <v>4135</v>
+      </c>
+      <c r="E909" t="n">
+        <v>4134</v>
+      </c>
+      <c r="F909" t="n">
+        <v>334.9024</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-85595.53595483003</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>4134</v>
+      </c>
+      <c r="C910" t="n">
+        <v>4133</v>
+      </c>
+      <c r="D910" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E910" t="n">
+        <v>4132</v>
+      </c>
+      <c r="F910" t="n">
+        <v>30884.9657</v>
+      </c>
+      <c r="G910" t="n">
+        <v>-116480.50165483</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="n">
+        <v>1</v>
+      </c>
+      <c r="M910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>4136</v>
+      </c>
+      <c r="C911" t="n">
+        <v>4137</v>
+      </c>
+      <c r="D911" t="n">
+        <v>4137</v>
+      </c>
+      <c r="E911" t="n">
+        <v>4136</v>
+      </c>
+      <c r="F911" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G911" t="n">
+        <v>-114480.50165483</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C912" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D912" t="n">
+        <v>4141</v>
+      </c>
+      <c r="E912" t="n">
+        <v>4141</v>
+      </c>
+      <c r="F912" t="n">
+        <v>120.74378169</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-114359.75787314</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>4143</v>
+      </c>
+      <c r="C913" t="n">
+        <v>4143</v>
+      </c>
+      <c r="D913" t="n">
+        <v>4143</v>
+      </c>
+      <c r="E913" t="n">
+        <v>4143</v>
+      </c>
+      <c r="F913" t="n">
+        <v>16.3366</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-114343.42127314</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C914" t="n">
+        <v>4143</v>
+      </c>
+      <c r="D914" t="n">
+        <v>4145</v>
+      </c>
+      <c r="E914" t="n">
+        <v>4143</v>
+      </c>
+      <c r="F914" t="n">
+        <v>628.1043</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-114343.42127314</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C915" t="n">
+        <v>4145</v>
+      </c>
+      <c r="D915" t="n">
+        <v>4145</v>
+      </c>
+      <c r="E915" t="n">
+        <v>4144</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1078.7591</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-113264.66217314</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>4153</v>
+      </c>
+      <c r="C916" t="n">
+        <v>4155</v>
+      </c>
+      <c r="D916" t="n">
+        <v>4156</v>
+      </c>
+      <c r="E916" t="n">
+        <v>4153</v>
+      </c>
+      <c r="F916" t="n">
+        <v>79.2028</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-113185.45937314</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>4156</v>
+      </c>
+      <c r="C917" t="n">
+        <v>4156</v>
+      </c>
+      <c r="D917" t="n">
+        <v>4156</v>
+      </c>
+      <c r="E917" t="n">
+        <v>4156</v>
+      </c>
+      <c r="F917" t="n">
+        <v>10</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-113175.45937314</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>4155</v>
+      </c>
+      <c r="C918" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D918" t="n">
+        <v>4160</v>
+      </c>
+      <c r="E918" t="n">
+        <v>4155</v>
+      </c>
+      <c r="F918" t="n">
+        <v>100</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-113075.45937314</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C919" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D919" t="n">
+        <v>4150</v>
+      </c>
+      <c r="E919" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F919" t="n">
+        <v>668.5386</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-113743.99797314</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>4159</v>
+      </c>
+      <c r="C920" t="n">
+        <v>4159</v>
+      </c>
+      <c r="D920" t="n">
+        <v>4159</v>
+      </c>
+      <c r="E920" t="n">
+        <v>4159</v>
+      </c>
+      <c r="F920" t="n">
+        <v>74.3683</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-113669.62967314</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>4152</v>
+      </c>
+      <c r="C921" t="n">
+        <v>4147</v>
+      </c>
+      <c r="D921" t="n">
+        <v>4152</v>
+      </c>
+      <c r="E921" t="n">
+        <v>4147</v>
+      </c>
+      <c r="F921" t="n">
+        <v>272.4962</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-113942.12587314</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C922" t="n">
+        <v>4146</v>
+      </c>
+      <c r="D922" t="n">
+        <v>4146</v>
+      </c>
+      <c r="E922" t="n">
+        <v>4146</v>
+      </c>
+      <c r="F922" t="n">
+        <v>35.7518</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-113977.87767314</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C923" t="n">
+        <v>4139</v>
+      </c>
+      <c r="D923" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E923" t="n">
+        <v>4139</v>
+      </c>
+      <c r="F923" t="n">
+        <v>21.655</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-113999.53267314</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C924" t="n">
+        <v>4139</v>
+      </c>
+      <c r="D924" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E924" t="n">
+        <v>4139</v>
+      </c>
+      <c r="F924" t="n">
+        <v>219.0819</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-113999.53267314</v>
+      </c>
+      <c r="H924" t="n">
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>4139</v>
+      </c>
+      <c r="J924" t="n">
+        <v>4139</v>
+      </c>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C925" t="n">
+        <v>4149</v>
+      </c>
+      <c r="D925" t="n">
+        <v>4155</v>
+      </c>
+      <c r="E925" t="n">
+        <v>4146</v>
+      </c>
+      <c r="F925" t="n">
+        <v>794.3495</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-113205.18317314</v>
+      </c>
+      <c r="H925" t="n">
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>4139</v>
+      </c>
+      <c r="J925" t="n">
+        <v>4139</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>4151</v>
+      </c>
+      <c r="C926" t="n">
+        <v>4156</v>
+      </c>
+      <c r="D926" t="n">
+        <v>4156</v>
+      </c>
+      <c r="E926" t="n">
+        <v>4149</v>
+      </c>
+      <c r="F926" t="n">
+        <v>3149.5843</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-110055.59887314</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>4139</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>4158</v>
+      </c>
+      <c r="C927" t="n">
+        <v>4167</v>
+      </c>
+      <c r="D927" t="n">
+        <v>4168</v>
+      </c>
+      <c r="E927" t="n">
+        <v>4158</v>
+      </c>
+      <c r="F927" t="n">
+        <v>3416.9347</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-106638.66417314</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>4157</v>
+      </c>
+      <c r="C928" t="n">
+        <v>4157</v>
+      </c>
+      <c r="D928" t="n">
+        <v>4157</v>
+      </c>
+      <c r="E928" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1597.1098</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-108235.77397314</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>4161</v>
+      </c>
+      <c r="C929" t="n">
+        <v>4156</v>
+      </c>
+      <c r="D929" t="n">
+        <v>4161</v>
+      </c>
+      <c r="E929" t="n">
+        <v>4156</v>
+      </c>
+      <c r="F929" t="n">
+        <v>208.4354</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-108444.20937314</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="n">
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C930" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D930" t="n">
+        <v>4160</v>
+      </c>
+      <c r="E930" t="n">
+        <v>4160</v>
+      </c>
+      <c r="F930" t="n">
+        <v>250</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-108194.20937314</v>
+      </c>
+      <c r="H930" t="n">
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>4156</v>
+      </c>
+      <c r="J930" t="n">
+        <v>4156</v>
+      </c>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="n">
+        <v>1</v>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>4154</v>
+      </c>
+      <c r="C931" t="n">
+        <v>4166</v>
+      </c>
+      <c r="D931" t="n">
+        <v>4166</v>
+      </c>
+      <c r="E931" t="n">
+        <v>4154</v>
+      </c>
+      <c r="F931" t="n">
+        <v>2294.5</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-105899.70937314</v>
+      </c>
+      <c r="H931" t="n">
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>4160</v>
+      </c>
+      <c r="J931" t="n">
+        <v>4156</v>
+      </c>
+      <c r="K931" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>4123</v>
-      </c>
-      <c r="C901" t="n">
-        <v>4123</v>
-      </c>
-      <c r="D901" t="n">
-        <v>4123</v>
-      </c>
-      <c r="E901" t="n">
-        <v>4123</v>
-      </c>
-      <c r="F901" t="n">
-        <v>400</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-86459.11824707006</v>
-      </c>
-      <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>4123</v>
-      </c>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>4123</v>
-      </c>
-      <c r="C902" t="n">
-        <v>4121</v>
-      </c>
-      <c r="D902" t="n">
-        <v>4123</v>
-      </c>
-      <c r="E902" t="n">
-        <v>4116</v>
-      </c>
-      <c r="F902" t="n">
-        <v>3889.556</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-90348.67424707006</v>
-      </c>
-      <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>4123</v>
-      </c>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>4120</v>
-      </c>
-      <c r="C903" t="n">
-        <v>4112</v>
-      </c>
-      <c r="D903" t="n">
-        <v>4120</v>
-      </c>
-      <c r="E903" t="n">
-        <v>4112</v>
-      </c>
-      <c r="F903" t="n">
-        <v>473.89320388</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-90822.56745095005</v>
-      </c>
-      <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>4121</v>
-      </c>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>4117</v>
-      </c>
-      <c r="C904" t="n">
-        <v>4125</v>
-      </c>
-      <c r="D904" t="n">
-        <v>4125</v>
-      </c>
-      <c r="E904" t="n">
-        <v>4116</v>
-      </c>
-      <c r="F904" t="n">
-        <v>3166.47479612</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-87656.09265483005</v>
-      </c>
-      <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>4112</v>
-      </c>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
-      <c r="M904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>4125</v>
-      </c>
-      <c r="C905" t="n">
-        <v>4125</v>
-      </c>
-      <c r="D905" t="n">
-        <v>4125</v>
-      </c>
-      <c r="E905" t="n">
-        <v>4125</v>
-      </c>
-      <c r="F905" t="n">
-        <v>247</v>
-      </c>
-      <c r="G905" t="n">
-        <v>-87656.09265483005</v>
-      </c>
-      <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>4125</v>
-      </c>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L905" t="n">
-        <v>1</v>
-      </c>
-      <c r="M905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>4120</v>
-      </c>
-      <c r="C906" t="n">
-        <v>4125</v>
-      </c>
-      <c r="D906" t="n">
-        <v>4125</v>
-      </c>
-      <c r="E906" t="n">
-        <v>4120</v>
-      </c>
-      <c r="F906" t="n">
-        <v>2005.4624</v>
-      </c>
-      <c r="G906" t="n">
-        <v>-87656.09265483005</v>
-      </c>
-      <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>4125</v>
-      </c>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L906" t="n">
-        <v>1</v>
-      </c>
-      <c r="M906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>4128</v>
-      </c>
-      <c r="C907" t="n">
-        <v>4127</v>
-      </c>
-      <c r="D907" t="n">
-        <v>4128</v>
-      </c>
-      <c r="E907" t="n">
-        <v>4127</v>
-      </c>
-      <c r="F907" t="n">
-        <v>1228.0338</v>
-      </c>
-      <c r="G907" t="n">
-        <v>-86428.05885483004</v>
-      </c>
-      <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>4125</v>
-      </c>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L907" t="n">
-        <v>1</v>
-      </c>
-      <c r="M907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>4131</v>
-      </c>
-      <c r="C908" t="n">
-        <v>4134</v>
-      </c>
-      <c r="D908" t="n">
-        <v>4134</v>
-      </c>
-      <c r="E908" t="n">
-        <v>4131</v>
-      </c>
-      <c r="F908" t="n">
-        <v>497.6205</v>
-      </c>
-      <c r="G908" t="n">
-        <v>-85930.43835483004</v>
-      </c>
-      <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>4127</v>
-      </c>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L908" t="n">
-        <v>1</v>
-      </c>
-      <c r="M908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>4134</v>
-      </c>
-      <c r="C909" t="n">
-        <v>4135</v>
-      </c>
-      <c r="D909" t="n">
-        <v>4135</v>
-      </c>
-      <c r="E909" t="n">
-        <v>4134</v>
-      </c>
-      <c r="F909" t="n">
-        <v>334.9024</v>
-      </c>
-      <c r="G909" t="n">
-        <v>-85595.53595483003</v>
-      </c>
-      <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L909" t="n">
-        <v>1</v>
-      </c>
-      <c r="M909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>4134</v>
-      </c>
-      <c r="C910" t="n">
-        <v>4133</v>
-      </c>
-      <c r="D910" t="n">
-        <v>4140</v>
-      </c>
-      <c r="E910" t="n">
-        <v>4132</v>
-      </c>
-      <c r="F910" t="n">
-        <v>30884.9657</v>
-      </c>
-      <c r="G910" t="n">
-        <v>-116480.50165483</v>
-      </c>
-      <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>4135</v>
-      </c>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L910" t="n">
-        <v>1</v>
-      </c>
-      <c r="M910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>4136</v>
-      </c>
-      <c r="C911" t="n">
-        <v>4137</v>
-      </c>
-      <c r="D911" t="n">
-        <v>4137</v>
-      </c>
-      <c r="E911" t="n">
-        <v>4136</v>
-      </c>
-      <c r="F911" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G911" t="n">
-        <v>-114480.50165483</v>
-      </c>
-      <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L911" t="n">
-        <v>1</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>4141</v>
-      </c>
-      <c r="C912" t="n">
-        <v>4141</v>
-      </c>
-      <c r="D912" t="n">
-        <v>4141</v>
-      </c>
-      <c r="E912" t="n">
-        <v>4141</v>
-      </c>
-      <c r="F912" t="n">
-        <v>120.74378169</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-114359.75787314</v>
-      </c>
-      <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>4143</v>
-      </c>
-      <c r="C913" t="n">
-        <v>4143</v>
-      </c>
-      <c r="D913" t="n">
-        <v>4143</v>
-      </c>
-      <c r="E913" t="n">
-        <v>4143</v>
-      </c>
-      <c r="F913" t="n">
-        <v>16.3366</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-114343.42127314</v>
-      </c>
-      <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>4141</v>
-      </c>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>4144</v>
-      </c>
-      <c r="C914" t="n">
-        <v>4143</v>
-      </c>
-      <c r="D914" t="n">
-        <v>4145</v>
-      </c>
-      <c r="E914" t="n">
-        <v>4143</v>
-      </c>
-      <c r="F914" t="n">
-        <v>628.1043</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-114343.42127314</v>
-      </c>
-      <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>4144</v>
-      </c>
-      <c r="C915" t="n">
-        <v>4145</v>
-      </c>
-      <c r="D915" t="n">
-        <v>4145</v>
-      </c>
-      <c r="E915" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F915" t="n">
-        <v>1078.7591</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-113264.66217314</v>
-      </c>
-      <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>4153</v>
-      </c>
-      <c r="C916" t="n">
-        <v>4155</v>
-      </c>
-      <c r="D916" t="n">
-        <v>4156</v>
-      </c>
-      <c r="E916" t="n">
-        <v>4153</v>
-      </c>
-      <c r="F916" t="n">
-        <v>79.2028</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-113185.45937314</v>
-      </c>
-      <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>4156</v>
-      </c>
-      <c r="C917" t="n">
-        <v>4156</v>
-      </c>
-      <c r="D917" t="n">
-        <v>4156</v>
-      </c>
-      <c r="E917" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F917" t="n">
-        <v>10</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-113175.45937314</v>
-      </c>
-      <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>4155</v>
-      </c>
-      <c r="C918" t="n">
-        <v>4160</v>
-      </c>
-      <c r="D918" t="n">
-        <v>4160</v>
-      </c>
-      <c r="E918" t="n">
-        <v>4155</v>
-      </c>
-      <c r="F918" t="n">
-        <v>100</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-113075.45937314</v>
-      </c>
-      <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>4150</v>
-      </c>
-      <c r="C919" t="n">
-        <v>4150</v>
-      </c>
-      <c r="D919" t="n">
-        <v>4150</v>
-      </c>
-      <c r="E919" t="n">
-        <v>4150</v>
-      </c>
-      <c r="F919" t="n">
-        <v>668.5386</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-113743.99797314</v>
-      </c>
-      <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>4159</v>
-      </c>
-      <c r="C920" t="n">
-        <v>4159</v>
-      </c>
-      <c r="D920" t="n">
-        <v>4159</v>
-      </c>
-      <c r="E920" t="n">
-        <v>4159</v>
-      </c>
-      <c r="F920" t="n">
-        <v>74.3683</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-113669.62967314</v>
-      </c>
-      <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>4152</v>
-      </c>
-      <c r="C921" t="n">
-        <v>4147</v>
-      </c>
-      <c r="D921" t="n">
-        <v>4152</v>
-      </c>
-      <c r="E921" t="n">
-        <v>4147</v>
-      </c>
-      <c r="F921" t="n">
-        <v>272.4962</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-113942.12587314</v>
-      </c>
-      <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>4146</v>
-      </c>
-      <c r="C922" t="n">
-        <v>4146</v>
-      </c>
-      <c r="D922" t="n">
-        <v>4146</v>
-      </c>
-      <c r="E922" t="n">
-        <v>4146</v>
-      </c>
-      <c r="F922" t="n">
-        <v>35.7518</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-113977.87767314</v>
-      </c>
-      <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C923" t="n">
-        <v>4139</v>
-      </c>
-      <c r="D923" t="n">
-        <v>4139</v>
-      </c>
-      <c r="E923" t="n">
-        <v>4139</v>
-      </c>
-      <c r="F923" t="n">
-        <v>21.655</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-113999.53267314</v>
-      </c>
-      <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C924" t="n">
-        <v>4139</v>
-      </c>
-      <c r="D924" t="n">
-        <v>4139</v>
-      </c>
-      <c r="E924" t="n">
-        <v>4139</v>
-      </c>
-      <c r="F924" t="n">
-        <v>219.0819</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-113999.53267314</v>
-      </c>
-      <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>4146</v>
-      </c>
-      <c r="C925" t="n">
-        <v>4149</v>
-      </c>
-      <c r="D925" t="n">
-        <v>4155</v>
-      </c>
-      <c r="E925" t="n">
-        <v>4146</v>
-      </c>
-      <c r="F925" t="n">
-        <v>794.3495</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-113205.18317314</v>
-      </c>
-      <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>4139</v>
-      </c>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>4151</v>
-      </c>
-      <c r="C926" t="n">
-        <v>4156</v>
-      </c>
-      <c r="D926" t="n">
-        <v>4156</v>
-      </c>
-      <c r="E926" t="n">
-        <v>4149</v>
-      </c>
-      <c r="F926" t="n">
-        <v>3149.5843</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-110055.59887314</v>
-      </c>
-      <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>4158</v>
-      </c>
-      <c r="C927" t="n">
-        <v>4167</v>
-      </c>
-      <c r="D927" t="n">
-        <v>4168</v>
-      </c>
-      <c r="E927" t="n">
-        <v>4158</v>
-      </c>
-      <c r="F927" t="n">
-        <v>3416.9347</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-106638.66417314</v>
-      </c>
-      <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>4157</v>
-      </c>
-      <c r="C928" t="n">
-        <v>4157</v>
-      </c>
-      <c r="D928" t="n">
-        <v>4157</v>
-      </c>
-      <c r="E928" t="n">
-        <v>4157</v>
-      </c>
-      <c r="F928" t="n">
-        <v>1597.1098</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-108235.77397314</v>
-      </c>
-      <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>4161</v>
-      </c>
-      <c r="C929" t="n">
-        <v>4156</v>
-      </c>
-      <c r="D929" t="n">
-        <v>4161</v>
-      </c>
-      <c r="E929" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F929" t="n">
-        <v>208.4354</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-108444.20937314</v>
-      </c>
-      <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L929" t="n">
-        <v>1</v>
-      </c>
-      <c r="M929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>4160</v>
-      </c>
-      <c r="C930" t="n">
-        <v>4160</v>
-      </c>
-      <c r="D930" t="n">
-        <v>4160</v>
-      </c>
-      <c r="E930" t="n">
-        <v>4160</v>
-      </c>
-      <c r="F930" t="n">
-        <v>250</v>
-      </c>
-      <c r="G930" t="n">
-        <v>-108194.20937314</v>
-      </c>
-      <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L930" t="n">
-        <v>1</v>
-      </c>
-      <c r="M930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>4154</v>
-      </c>
-      <c r="C931" t="n">
-        <v>4166</v>
-      </c>
-      <c r="D931" t="n">
-        <v>4166</v>
-      </c>
-      <c r="E931" t="n">
-        <v>4154</v>
-      </c>
-      <c r="F931" t="n">
-        <v>2294.5</v>
-      </c>
-      <c r="G931" t="n">
-        <v>-105899.70937314</v>
-      </c>
-      <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31293,10 +31171,14 @@
         <v>-104419.07547314</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>4166</v>
+      </c>
+      <c r="J932" t="n">
+        <v>4156</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31333,7 +31215,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>4156</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31367,10 +31251,14 @@
         <v>-104438.41627314</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>4168</v>
+      </c>
+      <c r="J934" t="n">
+        <v>4156</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31407,7 +31295,9 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>4156</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31441,10 +31331,14 @@
         <v>-104634.46477314</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>4166</v>
+      </c>
+      <c r="J936" t="n">
+        <v>4156</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31478,10 +31372,14 @@
         <v>-103527.54757314</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>4166</v>
+      </c>
+      <c r="J937" t="n">
+        <v>4156</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31515,10 +31413,14 @@
         <v>-103224.54757314</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>4169</v>
+      </c>
+      <c r="J938" t="n">
+        <v>4156</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31552,10 +31454,14 @@
         <v>-106624.04567314</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>4176</v>
+      </c>
+      <c r="J939" t="n">
+        <v>4156</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31589,10 +31495,14 @@
         <v>-107029.74087314</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>4175</v>
+      </c>
+      <c r="J940" t="n">
+        <v>4156</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31626,10 +31536,14 @@
         <v>-107039.79017314</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>4171</v>
+      </c>
+      <c r="J941" t="n">
+        <v>4156</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31663,10 +31577,14 @@
         <v>-111794.58367314</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>4168</v>
+      </c>
+      <c r="J942" t="n">
+        <v>4156</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31700,10 +31618,14 @@
         <v>-112633.25027314</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>4161</v>
+      </c>
+      <c r="J943" t="n">
+        <v>4156</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31737,10 +31659,14 @@
         <v>-112887.39227314</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>4157</v>
+      </c>
+      <c r="J944" t="n">
+        <v>4156</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31774,10 +31700,14 @@
         <v>-113001.33127314</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4156</v>
+      </c>
+      <c r="J945" t="n">
+        <v>4156</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31811,10 +31741,14 @@
         <v>-114044.04497314</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>4153</v>
+      </c>
+      <c r="J946" t="n">
+        <v>4156</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31848,10 +31782,14 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>4152</v>
+      </c>
+      <c r="J947" t="n">
+        <v>4156</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31885,10 +31823,14 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>4146</v>
+      </c>
+      <c r="J948" t="n">
+        <v>4156</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31922,10 +31864,14 @@
         <v>-112694.41667314</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>4146</v>
+      </c>
+      <c r="J949" t="n">
+        <v>4156</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
